--- a/oumtt_contact.xlsx
+++ b/oumtt_contact.xlsx
@@ -459,12 +459,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>010-1234-4321</t>
+          <t>010-2556-6858</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-06-02 20:50:02.203651</t>
+          <t>2022-06-04 21:16:22.267180</t>
         </is>
       </c>
     </row>
@@ -475,14 +475,10 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ㅈ앚ㅇㅁㄴㅇㅁㄻㅈㅇㅁ</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-06-03 16:39:32.505013</t>
+          <t>2022-06-05 11:48:50.085678</t>
         </is>
       </c>
     </row>

--- a/oumtt_contact.xlsx
+++ b/oumtt_contact.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,20 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2022-06-06 02:56:24.211806</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
